--- a/biology/Zoologie/Dynowarz__The_Destruction_of_Spondylus/Dynowarz__The_Destruction_of_Spondylus.xlsx
+++ b/biology/Zoologie/Dynowarz__The_Destruction_of_Spondylus/Dynowarz__The_Destruction_of_Spondylus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dynowarz: The Destruction of Spondylus (Dynowarz: Destruction of Spondylus sur l'écran titre) est un jeu d'action plates-formes en 2D à défilement horizontal à thème mecha. Il a été développé par Advance Communication Co. et édité par Bandai, uniquement en Amérique du Nord en avril 1990[1],[2],[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dynowarz: The Destruction of Spondylus (Dynowarz: Destruction of Spondylus sur l'écran titre) est un jeu d'action plates-formes en 2D à défilement horizontal à thème mecha. Il a été développé par Advance Communication Co. et édité par Bandai, uniquement en Amérique du Nord en avril 1990.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans le système solaire artificiel de Spondylus, les ordinateurs centraux contrôlant la vie sur chaque planète ont été sabotés et les planètes envahies par des Robosaures- des Robots Dinosaures. Sur la planète Alpha, le professeur Proteus, qui a conçu le système Spondylus ainsi que les Robosaures, se rend compte que le sabotage est l'œuvre du Dr Brainius, son ancien partenaire qui a mal tourné. Proteus a eu le temps de concevoir un Robosaure exceptionnel, le Cyborasaurus. Le Pr Proteus a pour mission de reprendre le contrôle des planètes en détruisant les systèmes infectés.
 Le synopsis a été comparé à celui de Megaman.
@@ -543,7 +557,9 @@
           <t>Système de jeu</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le jeu est composé de 7 niveaux, correspondant aux 7 planètes du système Spondylus. Chaque niveau est gardé par un boss Robosaure, en particulier des Théropodes, Sauropodes, et des Ptérodactyles.
 Dans chaque niveau, il y a des séquences de jeu avec contrôle direct du Pr Proteus en combinaison spatiale ou à bord de son mecha Cyborasaurus, un concept qui rappelle Blaster Master.
